--- a/Assignment Model/input/test_input_1.xlsx
+++ b/Assignment Model/input/test_input_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Bologna/Data-driven model for Bologna/Assignment Models/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Bologna/Data-driven model for Bologna/Assignment Model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{8C9C893E-EFC7-4F3A-89F8-FDDBB12C059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD93A31-37FB-4CAF-95A2-C7CFDCBF1EBC}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{8C9C893E-EFC7-4F3A-89F8-FDDBB12C059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E84988D-FEA9-42CC-8BD9-200C0DA7ECA9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem_instance_info" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,18 +489,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -556,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -582,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -608,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -631,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="H5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -657,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="H6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -683,10 +679,10 @@
         <v>23</v>
       </c>
       <c r="H7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -712,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -738,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -764,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -790,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -816,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -842,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -868,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -894,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -920,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -946,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -972,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -998,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1024,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1050,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1076,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1102,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1128,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1180,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1206,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1232,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1258,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1310,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1362,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1440,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1480,12 +1476,12 @@
       <selection activeCell="D17" sqref="B17:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1493,7 +1489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1501,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1509,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1517,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1525,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1533,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1541,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1549,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1557,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1585,14 +1581,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1610,15 +1606,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1640,7 +1636,7 @@
         <v>0.87595758099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1647,7 @@
         <v>2.9286189999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1658,7 @@
         <v>2.0326925999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1682,18 +1678,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC200037-E9B3-4125-A261-1C63EDE46CA4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
